--- a/biology/Zoologie/Ambystoma_andersoni/Ambystoma_andersoni.xlsx
+++ b/biology/Zoologie/Ambystoma_andersoni/Ambystoma_andersoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambystoma andersoni est une espèce d'urodèles de la famille des Ambystomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambystoma andersoni est une espèce d'urodèles de la famille des Ambystomatidae.
 Proche de l'axolotl, il est, comme lui, néotène.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des environs du lac Zacapú, dans l'État de Michoacán, au Mexique[1]. Elle se rencontre à Zacapú vers 2 000 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des environs du lac Zacapú, dans l'État de Michoacán, au Mexique. Elle se rencontre à Zacapú vers 2 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambystoma andersoni mesure de 100 à 140 mm sans la queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambystoma andersoni mesure de 100 à 140 mm sans la queue.
 La crête est beaucoup plus haute que chez l'axolotl, et les pattes sont palmées. Les branchies sont toujours pourpres. La couleur de fond est brun-ocre, avec des taches noires irrégulières sur le dos et le ventre. Le ventre est beige clair à blanc. Il existe deux lignées : l'une claire et l'autre foncée.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de James D. Anderson[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de James D. Anderson.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Krebs &amp; Brandon, 1984 : A new species of salamander (family Ambystomatidae) from Michoacan, Mexico. Herpetologica, vol. 40, no 3, p. 238-245.</t>
         </is>
